--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABF/10/seed4/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.033599999999991</v>
+        <v>6.051899999999988</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.30599999999997</v>
+        <v>-20.34129999999998</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-23.03450000000001</v>
+        <v>-23.03110000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.10800000000003</v>
+        <v>-22.11180000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>13.237</v>
+        <v>13.22869999999999</v>
       </c>
     </row>
     <row r="22">
